--- a/lab1/ТИ1.xlsx
+++ b/lab1/ТИ1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fumycat\Desktop\it1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fumycat\Desktop\it1\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22EDEC1-A925-4CAE-B88B-D75A260D917D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C285A-BE43-41F5-9775-178A53D34F9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -375,7 +375,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -670,7 +670,7 @@
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28">
-        <f t="shared" ref="E28:H31" si="7">LOG(E22, 2) * E22</f>
+        <f t="shared" ref="E28:H30" si="7">LOG(E22, 2) * E22</f>
         <v>-0.18575424759098902</v>
       </c>
       <c r="F28">
